--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-DL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4F903-62F3-2E4C-BBBF-BF6153FD1A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFA4F7-92EF-CC48-8764-529E7A791B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Publicação</t>
   </si>
@@ -52,6 +54,12 @@
   </si>
   <si>
     <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -425,18 +433,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4CB5A-363D-4943-B899-5CE4DD705651}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="174.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -444,17 +453,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
